--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Murodil/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerk\IdeaProjects\cybertek24-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853B064B-C0EA-B344-8EC3-426B28EA3AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE7DD3-7680-4E96-B366-B51B85788AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{47319A83-4017-A548-AEBB-A2F2B1387863}"/>
+    <workbookView xWindow="40770" yWindow="30" windowWidth="16830" windowHeight="15330" xr2:uid="{47319A83-4017-A548-AEBB-A2F2B1387863}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>username</t>
   </si>
@@ -190,12 +190,19 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -547,9 +554,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -580,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -597,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -614,10 +624,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -631,10 +641,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -648,10 +658,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -665,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -682,10 +692,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -699,10 +709,10 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -716,10 +726,10 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -733,10 +743,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -750,10 +760,10 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -767,10 +777,10 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -784,10 +794,10 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -801,10 +811,10 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -818,7 +828,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>username</t>
   </si>
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
